--- a/config/jspecs - all.xlsx
+++ b/config/jspecs - all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meas\p3388_general_rfi_tv\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\p3388_general_rfi_tv\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE2F643-1C21-4261-ABDD-FB23223499C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5BB07B-6092-428C-B28E-412D6A4E04B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,7 +987,7 @@
       </c>
       <c r="C5" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>107</v>
+        <v>453</v>
       </c>
       <c r="D5" s="2">
         <v>0.99</v>
@@ -1008,22 +1008,22 @@
       </c>
       <c r="I5" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.8606103973238994</v>
+        <v>1.7984722555237238</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.4345862339694411</v>
+        <v>0.19219298107628857</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -1062,22 +1062,22 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6:I69" ca="1" si="4">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ref="J6:J69" ca="1" si="5">RAND()*3</f>
-        <v>2.2883715531344047</v>
+        <v>1.3642751999980094</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L69" ca="1" si="6">RANDBETWEEN(-10,10)</f>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ref="M6:M69" ca="1" si="7">RAND()*3</f>
-        <v>1.7797034349788579</v>
+        <v>1.7052480052774059</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -1116,22 +1116,22 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2221629152085391</v>
+        <v>2.7860196390606591</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7454034105883345E-2</v>
+        <v>2.0768054163880416</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4678803689976372</v>
+        <v>0.74408241155004418</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99760971413013266</v>
+        <v>1.7977944164204063</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C9" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>958</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="8"/>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3013459721933061</v>
+        <v>1.9114569929201386</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5675737738415885</v>
+        <v>2.6020699031420222</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C34" ca="1" si="9">RANDBETWEEN(1,1024)</f>
-        <v>69</v>
+        <v>664</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="8"/>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7059038808042639</v>
+        <v>2.7477597108789058</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2725549895236137</v>
+        <v>0.17731869767468467</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>967</v>
+        <v>600</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="8"/>
@@ -1337,18 +1337,18 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.870211032814793</v>
+        <v>0.71884929571074552</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1531749486103413</v>
+        <v>1.2388604011834803</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="8"/>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34862302495184705</v>
+        <v>1.0744811793185682</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.50171418503928888</v>
+        <v>1.8986721151478507</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="8"/>
@@ -1441,22 +1441,22 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6300875461628657</v>
+        <v>1.8503715017403246</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3611929785681733</v>
+        <v>0.80280150572172049</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>136</v>
+        <v>404</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="8"/>
@@ -1496,22 +1496,22 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3968802139044607</v>
+        <v>2.6994298435225454</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29989130077624659</v>
+        <v>0.67725694275063009</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>889</v>
+        <v>584</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="8"/>
@@ -1551,22 +1551,22 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0191672289517069</v>
+        <v>0.13678912577924474</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9900707202057042</v>
+        <v>2.9476477843541371</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>853</v>
+        <v>682</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="8"/>
@@ -1604,22 +1604,22 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62814861665162025</v>
+        <v>1.7115947926509973</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3155866058129213</v>
+        <v>0.80291217135762627</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>907</v>
+        <v>1011</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="8"/>
@@ -1659,22 +1659,22 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45949726636141486</v>
+        <v>9.6106426403747891E-2</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.8555390559699525</v>
+        <v>1.5153825194637407</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="8"/>
@@ -1714,11 +1714,11 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82438060174613093</v>
+        <v>2.4240004788201763E-2</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>14</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7073280760846785</v>
+        <v>1.7638672903664159</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>798</v>
+        <v>649</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="8"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4669778038559627</v>
+        <v>2.0345590401417706</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9864984123638401</v>
+        <v>2.6488466322076532</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>190</v>
+        <v>633</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="8"/>
@@ -1822,22 +1822,22 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.984553702944527</v>
+        <v>1.4022157761073402</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9017272134000107</v>
+        <v>2.4146917640330736</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="8"/>
@@ -1877,22 +1877,22 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2226591441628978</v>
+        <v>2.8796934487112043</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1004272212111585</v>
+        <v>0.71514272050304062</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>810</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="8"/>
@@ -1932,22 +1932,22 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4930346211555801</v>
+        <v>1.0098213806369469</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3979577714367508</v>
+        <v>0.51338690740767379</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1008</v>
+        <v>416</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="8"/>
@@ -1987,22 +1987,22 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4921208981839977</v>
+        <v>0.44926220333888289</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4735273385574699</v>
+        <v>1.2101767784964179</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="8"/>
@@ -2042,22 +2042,22 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42275213154782998</v>
+        <v>1.2519331358111501</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0259868324405326</v>
+        <v>1.4596148786379799</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="8"/>
@@ -2097,22 +2097,22 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4335119913083254</v>
+        <v>1.8963908807570951</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2760817076121733</v>
+        <v>0.22135219286127517</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>607</v>
+        <v>843</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="8"/>
@@ -2152,22 +2152,22 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4538586998666609</v>
+        <v>1.9873965694435851</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25086452966646433</v>
+        <v>1.966081997618554</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>912</v>
+        <v>693</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="8"/>
@@ -2205,22 +2205,22 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0624550587599555</v>
+        <v>1.6680587004503464</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9456095249136689</v>
+        <v>0.82772824136468959</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>486</v>
+        <v>950</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="8"/>
@@ -2260,22 +2260,22 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64597148060716481</v>
+        <v>0.73099615284024066</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.645851425620839</v>
+        <v>1.0468575891995751</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>873</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="8"/>
@@ -2315,22 +2315,22 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94548829501768739</v>
+        <v>0.76581195562394511</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.704648349348358</v>
+        <v>1.8627121995818761</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>873</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="8"/>
@@ -2370,22 +2370,22 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2874862097347497</v>
+        <v>1.7973309817986061</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99740904568969235</v>
+        <v>1.5647634801882682</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>789</v>
+        <v>567</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="8"/>
@@ -2423,22 +2423,22 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1007869969783499</v>
+        <v>2.5302454808404322</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31449283121235982</v>
+        <v>1.4527573016535007</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>479</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="8"/>
@@ -2478,22 +2478,22 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2182956272414449</v>
+        <v>0.16872442662892195</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19811868524275855</v>
+        <v>2.1062538166300939</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>534</v>
+        <v>646</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="8"/>
@@ -2533,22 +2533,22 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2675087338440099</v>
+        <v>0.21011662986564239</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8830310278396154E-2</v>
+        <v>1.1548617416079061</v>
       </c>
       <c r="N33" s="1">
         <v>0</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>892</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="8"/>
@@ -2588,22 +2588,22 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7716910496145748</v>
+        <v>2.1986832966661085</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7697961958451478</v>
+        <v>0.37004161526864265</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C35" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>112</v>
+        <v>718</v>
       </c>
       <c r="D35" s="2">
         <v>0.99</v>
@@ -2642,22 +2642,22 @@
       </c>
       <c r="I35" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J35" s="2">
         <f ca="1">RAND()*3</f>
-        <v>1.7390955695627421</v>
+        <v>0.12801698632923342</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L35" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.1999822509381834</v>
+        <v>2.3845690012043166</v>
       </c>
       <c r="N35" s="1">
         <v>0</v>
@@ -2696,22 +2696,22 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17157518914386682</v>
+        <v>2.2802902637597393</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1714723731843399</v>
+        <v>1.0971321854954086</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
@@ -2750,22 +2750,22 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.002853855196312</v>
+        <v>1.4372341664622921</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2102093523273743</v>
+        <v>2.1999847374735504</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
@@ -2802,22 +2802,22 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.642642086601644</v>
+        <v>2.3361553566559117</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.674560257270021</v>
+        <v>2.1626277298653829</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C39" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>291</v>
+        <v>670</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="26"/>
@@ -2857,22 +2857,22 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0331358902406682</v>
+        <v>1.0238187804476682</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6750836334710022</v>
+        <v>1.1860328498169981</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ref="C40:C64" ca="1" si="27">RANDBETWEEN(1,1024)</f>
-        <v>352</v>
+        <v>472</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="26"/>
@@ -2912,22 +2912,22 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16963661399489127</v>
+        <v>0.10570826560667079</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0921450313115093</v>
+        <v>0.53706570888123895</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="26"/>
@@ -2967,22 +2967,22 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63299016490745386</v>
+        <v>0.55255550575329837</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.88607772971334486</v>
+        <v>0.90052538355365674</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>215</v>
+        <v>804</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="26"/>
@@ -3020,22 +3020,22 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0698134982300911</v>
+        <v>0.80535259561863159</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.41309793627434077</v>
+        <v>0.31856693728405516</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>58</v>
+        <v>400</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="26"/>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36328515177008336</v>
+        <v>1.1417235495461004</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8782780803813384</v>
+        <v>0.82148944580226801</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>209</v>
+        <v>482</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="26"/>
@@ -3130,22 +3130,22 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0370384700578335</v>
+        <v>1.165755024730347</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.38295244255355</v>
+        <v>2.7256997873456164</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>908</v>
+        <v>1005</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="26"/>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4986640464148122</v>
+        <v>2.9488622880002131</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>14</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="M45" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1800918822088899</v>
+        <v>1.9916304893179875</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>878</v>
+        <v>476</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="26"/>
@@ -3238,22 +3238,22 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3961211423103232</v>
+        <v>0.19445705149336312</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17999289075492753</v>
+        <v>1.9358468135511642</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>512</v>
+        <v>850</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="26"/>
@@ -3293,22 +3293,22 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6491007176318708</v>
+        <v>1.0575629944281246</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1618402393429843</v>
+        <v>0.55026019067122489</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="26"/>
@@ -3348,22 +3348,22 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1256542274715327</v>
+        <v>2.9925879687464056</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2491871669100495</v>
+        <v>1.4872939640727794</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>364</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="26"/>
@@ -3403,22 +3403,22 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1133094817891274</v>
+        <v>2.388578698565583</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42741131239092756</v>
+        <v>2.2602173864063659</v>
       </c>
       <c r="N49" s="1">
         <v>0</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>89</v>
+        <v>725</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="26"/>
@@ -3456,22 +3456,22 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9326228007665704</v>
+        <v>1.5627747803434726</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2699520923755174</v>
+        <v>0.87205023355395173</v>
       </c>
       <c r="N50" s="1">
         <v>0</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>757</v>
+        <v>244</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="26"/>
@@ -3515,18 +3515,18 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44932429141226782</v>
+        <v>0.40684865668476178</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.41976317988763168</v>
+        <v>2.8386674879300053</v>
       </c>
       <c r="N51" s="1">
         <v>0</v>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>562</v>
+        <v>950</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="26"/>
@@ -3566,22 +3566,22 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8072895939432674</v>
+        <v>0.92935143300268641</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95523961149576053</v>
+        <v>0.75072068798353786</v>
       </c>
       <c r="N52" s="1">
         <v>0</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>884</v>
+        <v>737</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="26"/>
@@ -3621,22 +3621,22 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5997870683066582</v>
+        <v>1.8041088666720402</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.6104508374760598</v>
+        <v>2.784009014992523</v>
       </c>
       <c r="N53" s="1">
         <v>0</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>412</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="26"/>
@@ -3676,11 +3676,11 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84851907604746912</v>
+        <v>2.0393450689484607</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>14</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="M54" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21821214033123693</v>
+        <v>1.4503779541812127</v>
       </c>
       <c r="N54" s="1">
         <v>0</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>750</v>
+        <v>835</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="26"/>
@@ -3731,22 +3731,22 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51252343777540132</v>
+        <v>1.7907153551164887</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.96590004376149396</v>
+        <v>1.5335757396391854</v>
       </c>
       <c r="N55" s="1">
         <v>0</v>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>158</v>
+        <v>984</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="26"/>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5176917247432566</v>
+        <v>1.5385752309618796</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5468740208410194</v>
+        <v>0.64378110332870098</v>
       </c>
       <c r="N56" s="1">
         <v>0</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>870</v>
+        <v>586</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="26"/>
@@ -3839,22 +3839,22 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80980115650964446</v>
+        <v>2.9065582585789818</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56078471640340088</v>
+        <v>0.10120600795186918</v>
       </c>
       <c r="N57" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>511</v>
+        <v>120</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="26"/>
@@ -3898,18 +3898,18 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0851709308785709</v>
+        <v>0.31841306442306994</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.7162990797252986</v>
+        <v>1.6502071278915782</v>
       </c>
       <c r="N58" s="1">
         <v>0</v>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>463</v>
+        <v>939</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="26"/>
@@ -3949,22 +3949,22 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74156283750643148</v>
+        <v>2.3503979753427489</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.069493317070088</v>
+        <v>1.0067664485821375</v>
       </c>
       <c r="N59" s="1">
         <v>0</v>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>961</v>
+        <v>446</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="26"/>
@@ -4004,22 +4004,22 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5667893935303354</v>
+        <v>2.1719077250992251</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.77315388914546646</v>
+        <v>0.35318923228581012</v>
       </c>
       <c r="N60" s="1">
         <v>0</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="26"/>
@@ -4057,22 +4057,22 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4598896061669837</v>
+        <v>0.5587702065957767</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.66913206891056598</v>
+        <v>1.0786519343318526</v>
       </c>
       <c r="N61" s="1">
         <v>0</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>794</v>
+        <v>1004</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="26"/>
@@ -4112,22 +4112,22 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8542323118124626</v>
+        <v>1.9483873448990887</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85593287292196485</v>
+        <v>0.42270328428055892</v>
       </c>
       <c r="N62" s="1">
         <v>0</v>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>682</v>
+        <v>869</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="26"/>
@@ -4167,22 +4167,22 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J63" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6420370103491679</v>
+        <v>0.17881990585837026</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7870568377256237</v>
+        <v>2.5373438618484623E-2</v>
       </c>
       <c r="N63" s="1">
         <v>0</v>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>319</v>
+        <v>817</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="26"/>
@@ -4222,22 +4222,22 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J64" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1512675979675286</v>
+        <v>1.6473526203580802</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.526240559897619</v>
+        <v>2.9423738742651118</v>
       </c>
       <c r="N64" s="1">
         <v>0</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="C65" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>704</v>
+        <v>394</v>
       </c>
       <c r="D65" s="2">
         <v>0.99</v>
@@ -4276,22 +4276,22 @@
       </c>
       <c r="I65" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J65" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.96718665630011535</v>
+        <v>2.0218796183948742</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L65" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="M65" s="2">
         <f ca="1">RAND()*3</f>
-        <v>1.3482970169387314</v>
+        <v>1.1127871389301105</v>
       </c>
       <c r="N65" s="1">
         <v>0</v>
@@ -4330,22 +4330,22 @@
       </c>
       <c r="I66" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J66" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13609174732736273</v>
+        <v>2.1936438684389303</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22373440106012854</v>
+        <v>0.29021921893238423</v>
       </c>
       <c r="N66" s="1">
         <v>0</v>
@@ -4384,22 +4384,22 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J67" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66034107993330227</v>
+        <v>0.1834439441735235</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2.228904137744359</v>
+        <v>0.35531961735662165</v>
       </c>
       <c r="N67" s="1">
         <v>0</v>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J68" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9244812058668135</v>
+        <v>0.3269760058415152</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5904414371948463</v>
+        <v>0.57688665641374148</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C69" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="44"/>
@@ -4495,18 +4495,18 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76183393387907739</v>
+        <v>0.82646577970018176</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67195723290618126</v>
+        <v>2.0498292544497443</v>
       </c>
       <c r="N69" s="1">
         <v>0</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ref="C70:C94" ca="1" si="45">RANDBETWEEN(1,1024)</f>
-        <v>848</v>
+        <v>348</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="44"/>
@@ -4546,22 +4546,22 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" ref="I70:I94" ca="1" si="48">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J70" s="2">
         <f t="shared" ref="J70:J94" ca="1" si="49">RAND()*3</f>
-        <v>2.0299731992941199</v>
+        <v>0.57510486828415508</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" ref="L70:L94" ca="1" si="50">RANDBETWEEN(-10,10)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" ref="M70:M94" ca="1" si="51">RAND()*3</f>
-        <v>0.23922763029026706</v>
+        <v>1.4731858561636495</v>
       </c>
       <c r="N70" s="1">
         <v>0</v>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>359</v>
+        <v>527</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="44"/>
@@ -4601,22 +4601,22 @@
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J71" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.1219708653941582</v>
+        <v>0.60523431592665156</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.342318173716878</v>
+        <v>2.2267233891900244</v>
       </c>
       <c r="N71" s="1">
         <v>0</v>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>588</v>
+        <v>871</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" si="44"/>
@@ -4654,22 +4654,22 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J72" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.5809228836282967</v>
+        <v>0.66579543956144416</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>3.3102331771607818E-2</v>
+        <v>0.94988064247492143</v>
       </c>
       <c r="N72" s="1">
         <v>0</v>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>857</v>
+        <v>811</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="44"/>
@@ -4709,22 +4709,22 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J73" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>9.1922435207357434E-2</v>
+        <v>2.5786679247363584</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>7.1777376888640498E-2</v>
+        <v>0.11120265056403233</v>
       </c>
       <c r="N73" s="1">
         <v>0</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>800</v>
+        <v>504</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" si="44"/>
@@ -4764,22 +4764,22 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J74" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.29325604764362323</v>
+        <v>2.4803638683579563</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.14304627004259263</v>
+        <v>2.1339740687162405</v>
       </c>
       <c r="N74" s="1">
         <v>0</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>944</v>
+        <v>222</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" si="44"/>
@@ -4819,22 +4819,22 @@
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J75" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.39337531699799866</v>
+        <v>0.86652696160189191</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M75" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.2067699484235703</v>
+        <v>0.11322768358408097</v>
       </c>
       <c r="N75" s="1">
         <v>0</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>342</v>
+        <v>586</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="44"/>
@@ -4872,22 +4872,22 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J76" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.209626646891246</v>
+        <v>2.1752164528631819</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M76" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.61311283151713825</v>
+        <v>2.9363837666300205</v>
       </c>
       <c r="N76" s="1">
         <v>0</v>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" si="44"/>
@@ -4927,22 +4927,22 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J77" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.0731324775379791</v>
+        <v>2.0630208798041205</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="M77" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.2203966469562628</v>
+        <v>0.74216410892811868</v>
       </c>
       <c r="N77" s="1">
         <v>0</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>498</v>
+        <v>165</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="44"/>
@@ -4982,22 +4982,22 @@
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J78" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.70268888348637</v>
+        <v>1.1203113616534868</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M78" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.0240330812562499</v>
+        <v>2.7746282746903184</v>
       </c>
       <c r="N78" s="1">
         <v>0</v>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>600</v>
+        <v>182</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="44"/>
@@ -5037,22 +5037,22 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.9312040352316446</v>
+        <v>1.0993920482823856</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>2.1515104703591512</v>
+        <v>0.69209980903540624</v>
       </c>
       <c r="N79" s="1">
         <v>0</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>769</v>
+        <v>171</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="44"/>
@@ -5090,22 +5090,22 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.83980537589814475</v>
+        <v>2.9717197702907336</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.15950293104457713</v>
+        <v>0.97975706205314494</v>
       </c>
       <c r="N80" s="1">
         <v>0</v>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="44"/>
@@ -5145,22 +5145,22 @@
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.457786459461123</v>
+        <v>1.5212842564359321</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.36734194772268025</v>
+        <v>1.6085698240837609</v>
       </c>
       <c r="N81" s="1">
         <v>0</v>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="44"/>
@@ -5200,22 +5200,22 @@
       </c>
       <c r="I82" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.2169252613719537</v>
+        <v>2.5750172192556731</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>2.4289483381418613</v>
+        <v>1.2211240876910914</v>
       </c>
       <c r="N82" s="1">
         <v>0</v>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>597</v>
+        <v>198</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="44"/>
@@ -5255,22 +5255,22 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.0397754025138992</v>
+        <v>2.1349457020539924</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.8568009429298461</v>
+        <v>0.23878033963607381</v>
       </c>
       <c r="N83" s="1">
         <v>0</v>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>1011</v>
+        <v>317</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="44"/>
@@ -5310,22 +5310,22 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J84" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.3575753431263908</v>
+        <v>1.1301996871721698</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M84" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.3658871179092431</v>
+        <v>1.9234042491186378</v>
       </c>
       <c r="N84" s="1">
         <v>0</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="44"/>
@@ -5365,22 +5365,22 @@
       </c>
       <c r="I85" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.6882320115846685</v>
+        <v>0.43265611370628221</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="M85" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.6071694309780877</v>
+        <v>0.52791900976412331</v>
       </c>
       <c r="N85" s="1">
         <v>0</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="44"/>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="J86" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.6962643733309393</v>
+        <v>2.1594998992840773</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>14</v>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="M86" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>2.4523361255718967</v>
+        <v>2.6657042545658132</v>
       </c>
       <c r="N86" s="1">
         <v>0</v>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" si="44"/>
@@ -5473,22 +5473,22 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J87" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.3180007379228309</v>
+        <v>1.8016714318346212</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="M87" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.6162035755329816</v>
+        <v>1.8498974890127755</v>
       </c>
       <c r="N87" s="1">
         <v>0</v>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" si="44"/>
@@ -5528,22 +5528,22 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J88" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.7739804113934143</v>
+        <v>1.2520100734026387</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.18267975357822941</v>
+        <v>0.2460910734882491</v>
       </c>
       <c r="N88" s="1">
         <v>0</v>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" si="44"/>
@@ -5583,22 +5583,22 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J89" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.39596690591885786</v>
+        <v>0.64746650051284171</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="M89" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.067883566696445</v>
+        <v>1.7328575836348339</v>
       </c>
       <c r="N89" s="1">
         <v>0</v>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>944</v>
+        <v>672</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" si="44"/>
@@ -5638,22 +5638,22 @@
       </c>
       <c r="I90" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J90" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>1.1844616033771629</v>
+        <v>1.4500881379615529</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="M90" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.29840653861662692</v>
+        <v>2.5025722355865114</v>
       </c>
       <c r="N90" s="1">
         <v>0</v>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>631</v>
+        <v>201</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" si="44"/>
@@ -5691,22 +5691,22 @@
       </c>
       <c r="I91" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J91" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.55076221883594867</v>
+        <v>1.5559046699807346</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="M91" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.94474678168181891</v>
+        <v>1.9039017820398325</v>
       </c>
       <c r="N91" s="1">
         <v>0</v>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" si="44"/>
@@ -5746,22 +5746,22 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J92" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.1479196888053131</v>
+        <v>1.7929494803953556</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="M92" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>2.3589485620197501</v>
+        <v>2.1021729602640797</v>
       </c>
       <c r="N92" s="1">
         <v>0</v>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>909</v>
+        <v>862</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" si="44"/>
@@ -5801,22 +5801,22 @@
       </c>
       <c r="I93" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J93" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>0.67944198434618974</v>
+        <v>0.916430738547093</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L93" s="1">
         <f t="shared" ca="1" si="50"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M93" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>0.12294831301478992</v>
+        <v>0.32284477655686106</v>
       </c>
       <c r="N93" s="1">
         <v>0</v>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="45"/>
-        <v>738</v>
+        <v>659</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" si="44"/>
@@ -5856,11 +5856,11 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" ca="1" si="48"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J94" s="2">
         <f t="shared" ca="1" si="49"/>
-        <v>2.7673026174545794</v>
+        <v>0.87637845586309027</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>14</v>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="M94" s="2">
         <f t="shared" ca="1" si="51"/>
-        <v>1.7322175275263354</v>
+        <v>0.6646793184965073</v>
       </c>
       <c r="N94" s="1">
         <v>0</v>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="C95" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="D95" s="2">
         <v>0.99</v>
@@ -5910,22 +5910,22 @@
       </c>
       <c r="I95" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J95" s="2">
         <f ca="1">RAND()*3</f>
-        <v>1.5804651195287545</v>
+        <v>1.3955198950203691</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L95" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M95" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.30668464875215196</v>
+        <v>1.3159027926565012</v>
       </c>
       <c r="N95" s="1">
         <v>0</v>
@@ -5964,22 +5964,22 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" ref="I96:I159" ca="1" si="66">RANDBETWEEN(1,30)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J96" s="2">
         <f t="shared" ref="J96:J159" ca="1" si="67">RAND()*3</f>
-        <v>1.3867920057675875</v>
+        <v>1.6795108075427163</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L96" s="1">
         <f t="shared" ref="L96:L159" ca="1" si="68">RANDBETWEEN(-10,10)</f>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="M96" s="2">
         <f t="shared" ref="M96:M159" ca="1" si="69">RAND()*3</f>
-        <v>2.9624724706248755</v>
+        <v>1.3663011549405546</v>
       </c>
       <c r="N96" s="1">
         <v>0</v>
@@ -6018,22 +6018,22 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J97" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.012352409493432</v>
+        <v>1.9396363312306186</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L97" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="M97" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.1855982261884566</v>
+        <v>0.2819551636209644</v>
       </c>
       <c r="N97" s="1">
         <v>0</v>
@@ -6070,22 +6070,22 @@
       </c>
       <c r="I98" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.7282643156949833</v>
+        <v>0.58711739597357127</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M98" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.1744131867527567</v>
+        <v>1.8254970945260527</v>
       </c>
       <c r="N98" s="1">
         <v>0</v>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="C99" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>45</v>
+        <v>701</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" si="70"/>
@@ -6125,22 +6125,22 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J99" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.204576272887274</v>
+        <v>0.45740713500765029</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L99" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="M99" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.9941773719452325</v>
+        <v>0.54702341317019365</v>
       </c>
       <c r="N99" s="1">
         <v>0</v>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ref="C100:C124" ca="1" si="71">RANDBETWEEN(1,1024)</f>
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" si="70"/>
@@ -6180,22 +6180,22 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J100" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.73498639898902685</v>
+        <v>1.4018839711793132</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L100" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M100" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.783692678590993</v>
+        <v>0.67590297257385623</v>
       </c>
       <c r="N100" s="1">
         <v>0</v>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>982</v>
+        <v>640</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" si="70"/>
@@ -6235,22 +6235,22 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J101" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.60533773929656276</v>
+        <v>2.3295797178512228</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L101" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.253827917709073</v>
+        <v>0.73206538432376822</v>
       </c>
       <c r="N101" s="1">
         <v>0</v>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>173</v>
+        <v>749</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" si="70"/>
@@ -6288,22 +6288,22 @@
       </c>
       <c r="I102" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J102" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>5.160750073508269E-2</v>
+        <v>2.002037886144004</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L102" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M102" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.17734946000327845</v>
+        <v>0.19059059090080521</v>
       </c>
       <c r="N102" s="1">
         <v>0</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>212</v>
+        <v>382</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" si="70"/>
@@ -6343,22 +6343,22 @@
       </c>
       <c r="I103" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.82063439607603927</v>
+        <v>0.62168029368790534</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L103" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.73604441557069589</v>
+        <v>0.50461834446029719</v>
       </c>
       <c r="N103" s="1">
         <v>0</v>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" si="70"/>
@@ -6398,22 +6398,22 @@
       </c>
       <c r="I104" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J104" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.6989330659780322</v>
+        <v>0.9260030658566698</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L104" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.595111241190351</v>
+        <v>1.9053432903867265</v>
       </c>
       <c r="N104" s="1">
         <v>0</v>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>551</v>
+        <v>942</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" si="70"/>
@@ -6453,22 +6453,22 @@
       </c>
       <c r="I105" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J105" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.7966809392904421</v>
+        <v>1.8611751844084714</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L105" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.205437960918887</v>
+        <v>0.11657828021359906</v>
       </c>
       <c r="N105" s="1">
         <v>0</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>980</v>
+        <v>518</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" si="70"/>
@@ -6506,22 +6506,22 @@
       </c>
       <c r="I106" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J106" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.8958102922422819</v>
+        <v>9.7257191462550074E-2</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L106" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.2435649399236034</v>
+        <v>1.9250326887884004</v>
       </c>
       <c r="N106" s="1">
         <v>0</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>647</v>
+        <v>479</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" si="70"/>
@@ -6561,22 +6561,22 @@
       </c>
       <c r="I107" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J107" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.8753248515710117</v>
+        <v>2.3970258014140411</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L107" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.68785509414811918</v>
+        <v>2.9267654070005933</v>
       </c>
       <c r="N107" s="1">
         <v>0</v>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>490</v>
+        <v>982</v>
       </c>
       <c r="D108" s="2">
         <f t="shared" si="70"/>
@@ -6616,22 +6616,22 @@
       </c>
       <c r="I108" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.6836871354433636</v>
+        <v>2.6732811308959405</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L108" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M108" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.7182466847121116</v>
+        <v>1.3887970022342073</v>
       </c>
       <c r="N108" s="1">
         <v>0</v>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>222</v>
+        <v>630</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" si="70"/>
@@ -6671,22 +6671,22 @@
       </c>
       <c r="I109" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J109" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.968654653215494</v>
+        <v>0.3703508852015952</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L109" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="M109" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.3503916865045131</v>
+        <v>0.31133293234609383</v>
       </c>
       <c r="N109" s="1">
         <v>0</v>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" si="70"/>
@@ -6724,22 +6724,22 @@
       </c>
       <c r="I110" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J110" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.1720860111826736</v>
+        <v>0.57602774504458232</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L110" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="M110" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.4656792892111543</v>
+        <v>2.3834332050067797</v>
       </c>
       <c r="N110" s="1">
         <v>0</v>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>678</v>
+        <v>141</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" si="70"/>
@@ -6779,22 +6779,22 @@
       </c>
       <c r="I111" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J111" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.8494551866249167</v>
+        <v>1.778370649194382</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L111" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="M111" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.23216610457751696</v>
+        <v>2.1357215650628176</v>
       </c>
       <c r="N111" s="1">
         <v>0</v>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>470</v>
+        <v>712</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" si="70"/>
@@ -6834,22 +6834,22 @@
       </c>
       <c r="I112" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J112" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.4006503550973157</v>
+        <v>0.55488551235414618</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L112" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="M112" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.97474059852187456</v>
+        <v>2.6667045644564094</v>
       </c>
       <c r="N112" s="1">
         <v>0</v>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>985</v>
+        <v>163</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" si="70"/>
@@ -6889,22 +6889,22 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J113" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.9384370547419953</v>
+        <v>0.90464034000618077</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L113" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="M113" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.8063450917710062</v>
+        <v>2.1233361075310433</v>
       </c>
       <c r="N113" s="1">
         <v>0</v>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>975</v>
+        <v>358</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" si="70"/>
@@ -6948,18 +6948,18 @@
       </c>
       <c r="J114" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.34596632959889095</v>
+        <v>1.7358984926149579</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L114" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="M114" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.4519029316146104</v>
+        <v>0.66128259813926171</v>
       </c>
       <c r="N114" s="1">
         <v>0</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>645</v>
+        <v>59</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" si="70"/>
@@ -6999,22 +6999,22 @@
       </c>
       <c r="I115" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J115" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.7498077755061767</v>
+        <v>1.1920128988059626</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L115" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="M115" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.3850779593136964</v>
+        <v>2.7818556165543771</v>
       </c>
       <c r="N115" s="1">
         <v>0</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" si="70"/>
@@ -7054,22 +7054,22 @@
       </c>
       <c r="I116" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J116" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.8843542569074685</v>
+        <v>2.1803896695464853</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L116" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="M116" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.5496347631914795</v>
+        <v>2.8130690537252789</v>
       </c>
       <c r="N116" s="1">
         <v>0</v>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>882</v>
+        <v>271</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" si="70"/>
@@ -7107,22 +7107,22 @@
       </c>
       <c r="I117" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1336190568583349</v>
+        <v>1.7543963995006684</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L117" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M117" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.1967354775091126</v>
+        <v>1.1201092722528969</v>
       </c>
       <c r="N117" s="1">
         <v>0</v>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" si="70"/>
@@ -7162,22 +7162,22 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J118" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.32367649261021725</v>
+        <v>2.2720643695027092</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L118" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="M118" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.8631213217266778</v>
+        <v>0.85358394706682883</v>
       </c>
       <c r="N118" s="1">
         <v>0</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>1020</v>
+        <v>335</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" si="70"/>
@@ -7217,22 +7217,22 @@
       </c>
       <c r="I119" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J119" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.592568943180769</v>
+        <v>2.8796799414917347</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L119" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="M119" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.26503233558961836</v>
+        <v>1.7752462941199465</v>
       </c>
       <c r="N119" s="1">
         <v>0</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" si="70"/>
@@ -7272,22 +7272,22 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.2334116856396675</v>
+        <v>1.3494213079529649</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L120" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M120" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.0755505368932665</v>
+        <v>1.6619990785129271</v>
       </c>
       <c r="N120" s="1">
         <v>0</v>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>955</v>
+        <v>756</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" si="70"/>
@@ -7325,22 +7325,22 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J121" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.7922158431463671</v>
+        <v>2.8285024651100201</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L121" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="M121" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.58683073289240262</v>
+        <v>1.4341264538746952</v>
       </c>
       <c r="N121" s="1">
         <v>0</v>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>415</v>
+        <v>821</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" si="70"/>
@@ -7380,11 +7380,11 @@
       </c>
       <c r="I122" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J122" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.4093731622687979</v>
+        <v>2.2722689206522384</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>14</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="M122" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.3576754922925749</v>
+        <v>2.097369987684544</v>
       </c>
       <c r="N122" s="1">
         <v>0</v>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>86</v>
+        <v>870</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" si="70"/>
@@ -7435,22 +7435,22 @@
       </c>
       <c r="I123" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.8154738261624912</v>
+        <v>0.9793515042673574</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L123" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="M123" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.2403431435049672</v>
+        <v>1.6725786361159178E-2</v>
       </c>
       <c r="N123" s="1">
         <v>0</v>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" ca="1" si="71"/>
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="D124" s="2">
         <f t="shared" si="70"/>
@@ -7490,22 +7490,22 @@
       </c>
       <c r="I124" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J124" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.5883311722895335</v>
+        <v>1.4087292893784591</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L124" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="M124" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.6677537486122476</v>
+        <v>1.0356642262245175</v>
       </c>
       <c r="N124" s="1">
         <v>0</v>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="C125" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>282</v>
+        <v>912</v>
       </c>
       <c r="D125" s="2">
         <v>0.99</v>
@@ -7544,22 +7544,22 @@
       </c>
       <c r="I125" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J125" s="2">
         <f ca="1">RAND()*3</f>
-        <v>1.9315040512422901</v>
+        <v>0.67363212183426824</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L125" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M125" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.75966551527833204</v>
+        <v>1.4350309717512741</v>
       </c>
       <c r="N125" s="1">
         <v>0</v>
@@ -7598,22 +7598,22 @@
       </c>
       <c r="I126" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J126" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0187345762349698</v>
+        <v>1.0470904355965354</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L126" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M126" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.66812834912354868</v>
+        <v>2.6629049254878217</v>
       </c>
       <c r="N126" s="1">
         <v>0</v>
@@ -7652,22 +7652,22 @@
       </c>
       <c r="I127" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J127" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.1677181063345232</v>
+        <v>2.6874088267461413</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L127" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M127" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.2653221817789282</v>
+        <v>0.84632216331832399</v>
       </c>
       <c r="N127" s="1">
         <v>0</v>
@@ -7704,22 +7704,22 @@
       </c>
       <c r="I128" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J128" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.88279579051375978</v>
+        <v>0.8233288828410138</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L128" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="M128" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.1149443944848523</v>
+        <v>1.4715792715949167</v>
       </c>
       <c r="N128" s="1">
         <v>0</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="C129" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>960</v>
+        <v>728</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" si="88"/>
@@ -7759,22 +7759,22 @@
       </c>
       <c r="I129" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J129" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0396419685867402</v>
+        <v>0.37934266523993887</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L129" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="M129" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.42248138163219462</v>
+        <v>0.99001597308868361</v>
       </c>
       <c r="N129" s="1">
         <v>0</v>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="C130" s="1">
         <f t="shared" ref="C130:C154" ca="1" si="89">RANDBETWEEN(1,1024)</f>
-        <v>514</v>
+        <v>983</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" si="88"/>
@@ -7814,22 +7814,22 @@
       </c>
       <c r="I130" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J130" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.075575545068058</v>
+        <v>1.7970653724703236</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L130" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="M130" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.50154627486655901</v>
+        <v>2.0657596589481395</v>
       </c>
       <c r="N130" s="1">
         <v>0</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="C131" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>444</v>
+        <v>771</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" si="88"/>
@@ -7869,22 +7869,22 @@
       </c>
       <c r="I131" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J131" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0058117738266681</v>
+        <v>1.5522173991250263</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L131" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M131" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.8911856249620842</v>
+        <v>1.4470031320072261</v>
       </c>
       <c r="N131" s="1">
         <v>0</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="C132" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" si="88"/>
@@ -7922,22 +7922,22 @@
       </c>
       <c r="I132" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.5275480116996492</v>
+        <v>2.8793487686259609</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L132" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M132" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.7691846521350572</v>
+        <v>2.2393927410498957</v>
       </c>
       <c r="N132" s="1">
         <v>0</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C133" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>527</v>
+        <v>223</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" si="88"/>
@@ -7977,22 +7977,22 @@
       </c>
       <c r="I133" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.4232857778408361</v>
+        <v>1.8507481549781528</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L133" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="M133" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.0993514819973962</v>
+        <v>1.9141327046856964</v>
       </c>
       <c r="N133" s="1">
         <v>0</v>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="C134" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>446</v>
+        <v>931</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" si="88"/>
@@ -8032,22 +8032,22 @@
       </c>
       <c r="I134" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J134" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.14637858142644378</v>
+        <v>1.6791954392079236</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L134" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="M134" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.768820549716662</v>
+        <v>1.54779170654666</v>
       </c>
       <c r="N134" s="1">
         <v>0</v>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="C135" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>884</v>
+        <v>852</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" si="88"/>
@@ -8087,22 +8087,22 @@
       </c>
       <c r="I135" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J135" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.0720460244531904</v>
+        <v>0.52319284115693898</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L135" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="M135" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.9386574045312448</v>
+        <v>1.6821202494148415</v>
       </c>
       <c r="N135" s="1">
         <v>0</v>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="C136" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>1016</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" si="88"/>
@@ -8140,22 +8140,22 @@
       </c>
       <c r="I136" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J136" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.55535234244870313</v>
+        <v>1.0647961587772328</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L136" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="M136" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.26771025710204621</v>
+        <v>0.68949259038632138</v>
       </c>
       <c r="N136" s="1">
         <v>0</v>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="C137" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>118</v>
+        <v>566</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" si="88"/>
@@ -8195,22 +8195,22 @@
       </c>
       <c r="I137" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J137" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.3200252029246493</v>
+        <v>2.0772999700250541</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L137" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="M137" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.34479412339716597</v>
+        <v>1.2406233068743959</v>
       </c>
       <c r="N137" s="1">
         <v>0</v>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C138" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>1011</v>
+        <v>470</v>
       </c>
       <c r="D138" s="2">
         <f t="shared" si="88"/>
@@ -8250,22 +8250,22 @@
       </c>
       <c r="I138" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J138" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.97360543802380795</v>
+        <v>1.1664939428367611</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L138" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="M138" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.4875825297390404</v>
+        <v>1.2876952730132496</v>
       </c>
       <c r="N138" s="1">
         <v>0</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="C139" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>96</v>
+        <v>855</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" si="88"/>
@@ -8309,18 +8309,18 @@
       </c>
       <c r="J139" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.22232225084991342</v>
+        <v>2.390566853988275</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L139" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M139" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.4452685834261445</v>
+        <v>2.1260336777130764</v>
       </c>
       <c r="N139" s="1">
         <v>0</v>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="C140" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" si="88"/>
@@ -8358,22 +8358,22 @@
       </c>
       <c r="I140" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J140" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.0806577319396518</v>
+        <v>0.8043891667583476</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L140" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="M140" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.7256232361858412</v>
+        <v>0.96761705956951338</v>
       </c>
       <c r="N140" s="1">
         <v>0</v>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="C141" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>235</v>
+        <v>486</v>
       </c>
       <c r="D141" s="2">
         <f t="shared" si="88"/>
@@ -8413,22 +8413,22 @@
       </c>
       <c r="I141" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J141" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.966699426185063</v>
+        <v>2.418879291444437</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L141" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="M141" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.8792666277928411</v>
+        <v>1.7825376915834485</v>
       </c>
       <c r="N141" s="1">
         <v>0</v>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="C142" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>671</v>
+        <v>577</v>
       </c>
       <c r="D142" s="2">
         <f t="shared" si="88"/>
@@ -8468,22 +8468,22 @@
       </c>
       <c r="I142" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J142" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1099216628799669</v>
+        <v>2.1625799303272837</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L142" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M142" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.10608330595260884</v>
+        <v>1.7200309094544828</v>
       </c>
       <c r="N142" s="1">
         <v>0</v>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="C143" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D143" s="2">
         <f t="shared" si="88"/>
@@ -8523,22 +8523,22 @@
       </c>
       <c r="I143" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J143" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.5079692451108486</v>
+        <v>0.84756144113298726</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L143" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M143" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.653708443084478</v>
+        <v>0.14669043763115741</v>
       </c>
       <c r="N143" s="1">
         <v>0</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="C144" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="D144" s="2">
         <f t="shared" si="88"/>
@@ -8578,22 +8578,22 @@
       </c>
       <c r="I144" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J144" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.5837910365013879</v>
+        <v>0.95993509933712795</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L144" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="M144" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.73718792999987504</v>
+        <v>2.8843272521682617</v>
       </c>
       <c r="N144" s="1">
         <v>0</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="C145" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="D145" s="2">
         <f t="shared" si="88"/>
@@ -8633,22 +8633,22 @@
       </c>
       <c r="I145" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J145" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.8697883005251663</v>
+        <v>0.8168051310136506</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L145" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="M145" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.24833173940231468</v>
+        <v>2.278877700963712</v>
       </c>
       <c r="N145" s="1">
         <v>0</v>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="C146" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>149</v>
+        <v>794</v>
       </c>
       <c r="D146" s="2">
         <f t="shared" si="88"/>
@@ -8688,22 +8688,22 @@
       </c>
       <c r="I146" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J146" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.98858578047687307</v>
+        <v>1.9729543531812557</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L146" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M146" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.4113016135524195</v>
+        <v>0.80460770452592323</v>
       </c>
       <c r="N146" s="1">
         <v>0</v>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="C147" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>516</v>
+        <v>259</v>
       </c>
       <c r="D147" s="2">
         <f t="shared" si="88"/>
@@ -8741,22 +8741,22 @@
       </c>
       <c r="I147" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J147" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.0131762791111196</v>
+        <v>1.1271696388690118</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L147" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="M147" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.9822016675671019</v>
+        <v>2.7320437803423854</v>
       </c>
       <c r="N147" s="1">
         <v>0</v>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="C148" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="D148" s="2">
         <f t="shared" si="88"/>
@@ -8796,11 +8796,11 @@
       </c>
       <c r="I148" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J148" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.6890170927201407</v>
+        <v>0.69570882165140702</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>14</v>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="M148" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.8738728938596072</v>
+        <v>2.5081208999736235</v>
       </c>
       <c r="N148" s="1">
         <v>0</v>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="C149" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>282</v>
+        <v>584</v>
       </c>
       <c r="D149" s="2">
         <f t="shared" si="88"/>
@@ -8851,22 +8851,22 @@
       </c>
       <c r="I149" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J149" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.5536747862207188</v>
+        <v>2.3784951485133385</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L149" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M149" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.7900014273967262</v>
+        <v>1.3337605064400573</v>
       </c>
       <c r="N149" s="1">
         <v>0</v>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="C150" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>175</v>
+        <v>529</v>
       </c>
       <c r="D150" s="2">
         <f t="shared" si="88"/>
@@ -8906,22 +8906,22 @@
       </c>
       <c r="I150" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J150" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.1880517889139242</v>
+        <v>1.2009501816206198</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L150" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="M150" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.6478574796623744</v>
+        <v>0.46460602305190501</v>
       </c>
       <c r="N150" s="1">
         <v>0</v>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="C151" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>804</v>
+        <v>758</v>
       </c>
       <c r="D151" s="2">
         <f t="shared" si="88"/>
@@ -8959,22 +8959,22 @@
       </c>
       <c r="I151" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J151" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.16155490458576938</v>
+        <v>0.38277856280865941</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L151" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M151" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.2286319191109569</v>
+        <v>0.59087559128877265</v>
       </c>
       <c r="N151" s="1">
         <v>0</v>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="C152" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>1017</v>
+        <v>337</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" si="88"/>
@@ -9014,22 +9014,22 @@
       </c>
       <c r="I152" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J152" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.2690222217298264</v>
+        <v>1.2315736753150337</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L152" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="M152" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.9522278891059877</v>
+        <v>0.58076776325932278</v>
       </c>
       <c r="N152" s="1">
         <v>0</v>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="C153" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>610</v>
+        <v>690</v>
       </c>
       <c r="D153" s="2">
         <f t="shared" si="88"/>
@@ -9069,22 +9069,22 @@
       </c>
       <c r="I153" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J153" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.7663653816075302</v>
+        <v>2.9047728787833034</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L153" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="M153" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.82829358056766866</v>
+        <v>6.4361761547034213E-2</v>
       </c>
       <c r="N153" s="1">
         <v>0</v>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="C154" s="1">
         <f t="shared" ca="1" si="89"/>
-        <v>89</v>
+        <v>654</v>
       </c>
       <c r="D154" s="2">
         <f t="shared" si="88"/>
@@ -9124,22 +9124,22 @@
       </c>
       <c r="I154" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J154" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.1944050140902318</v>
+        <v>0.69267862678344305</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L154" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="M154" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2.139549002693335</v>
+        <v>2.9151804608662149</v>
       </c>
       <c r="N154" s="1">
         <v>0</v>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="C155" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="D155" s="2">
         <v>0.99</v>
@@ -9178,22 +9178,22 @@
       </c>
       <c r="I155" s="1">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J155" s="2">
         <f ca="1">RAND()*3</f>
-        <v>2.4396848879039545</v>
+        <v>2.9560589120492895</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L155" s="1">
         <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M155" s="2">
         <f ca="1">RAND()*3</f>
-        <v>0.67770914374752111</v>
+        <v>2.841290615274219</v>
       </c>
       <c r="N155" s="1">
         <v>0</v>
@@ -9232,22 +9232,22 @@
       </c>
       <c r="I156" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J156" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>0.3358991744749823</v>
+        <v>2.8727421442773813</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L156" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M156" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>0.60186084333092016</v>
+        <v>2.3997932310604297</v>
       </c>
       <c r="N156" s="1">
         <v>0</v>
@@ -9286,11 +9286,11 @@
       </c>
       <c r="I157" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J157" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.7742193033076052</v>
+        <v>1.9619074582362097</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>14</v>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="M157" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.3156246560397173</v>
+        <v>2.5101446151837563</v>
       </c>
       <c r="N157" s="1">
         <v>0</v>
@@ -9338,22 +9338,22 @@
       </c>
       <c r="I158" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J158" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2.5253472838108455</v>
+        <v>1.8584043771117402</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L158" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="M158" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.7533571750245192</v>
+        <v>2.9423229932978523</v>
       </c>
       <c r="N158" s="1">
         <v>0</v>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="C159" s="1">
         <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="D159" s="2">
         <f t="shared" si="106"/>
@@ -9393,22 +9393,22 @@
       </c>
       <c r="I159" s="1">
         <f t="shared" ca="1" si="66"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J159" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1.8246696005421623</v>
+        <v>1.0127019023768762</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L159" s="1">
         <f t="shared" ca="1" si="68"/>
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="M159" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1.6351534144693247</v>
+        <v>1.1447797939788276</v>
       </c>
       <c r="N159" s="1">
         <v>0</v>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="C160" s="1">
         <f t="shared" ref="C160:C184" ca="1" si="107">RANDBETWEEN(1,1024)</f>
-        <v>100</v>
+        <v>556</v>
       </c>
       <c r="D160" s="2">
         <f t="shared" si="106"/>
@@ -9448,22 +9448,22 @@
       </c>
       <c r="I160" s="1">
         <f t="shared" ref="I160:I184" ca="1" si="110">RANDBETWEEN(1,30)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J160" s="2">
         <f t="shared" ref="J160:J184" ca="1" si="111">RAND()*3</f>
-        <v>0.23009316132893087</v>
+        <v>2.5990150965915877</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L160" s="1">
         <f t="shared" ref="L160:L184" ca="1" si="112">RANDBETWEEN(-10,10)</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="M160" s="2">
         <f t="shared" ref="M160:M184" ca="1" si="113">RAND()*3</f>
-        <v>2.7487754557294934</v>
+        <v>1.8309226376949008</v>
       </c>
       <c r="N160" s="1">
         <v>0</v>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C161" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>199</v>
+        <v>822</v>
       </c>
       <c r="D161" s="2">
         <f t="shared" si="106"/>
@@ -9503,22 +9503,22 @@
       </c>
       <c r="I161" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J161" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.86382030082188932</v>
+        <v>1.5260299518970601</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L161" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M161" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>1.648931402574934</v>
+        <v>2.197165297780745</v>
       </c>
       <c r="N161" s="1">
         <v>0</v>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="C162" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>419</v>
+        <v>771</v>
       </c>
       <c r="D162" s="2">
         <f t="shared" si="106"/>
@@ -9556,22 +9556,22 @@
       </c>
       <c r="I162" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J162" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.42015414756973468</v>
+        <v>1.2713275208993453</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L162" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="M162" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.68328406684254295</v>
+        <v>2.2695210943488147</v>
       </c>
       <c r="N162" s="1">
         <v>0</v>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="C163" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>45</v>
+        <v>712</v>
       </c>
       <c r="D163" s="2">
         <f t="shared" si="106"/>
@@ -9611,22 +9611,22 @@
       </c>
       <c r="I163" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J163" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.23816684370028995</v>
+        <v>2.7560085239547596</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L163" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M163" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.91826458424744117</v>
+        <v>1.5338724475584187</v>
       </c>
       <c r="N163" s="1">
         <v>0</v>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C164" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D164" s="2">
         <f t="shared" si="106"/>
@@ -9666,22 +9666,22 @@
       </c>
       <c r="I164" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J164" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.7835697954281571</v>
+        <v>0.94670765472800578</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L164" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M164" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>1.9150741388065149</v>
+        <v>1.2092214522192588</v>
       </c>
       <c r="N164" s="1">
         <v>0</v>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="C165" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>446</v>
+        <v>835</v>
       </c>
       <c r="D165" s="2">
         <f t="shared" si="106"/>
@@ -9721,22 +9721,22 @@
       </c>
       <c r="I165" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J165" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.42337761194397527</v>
+        <v>2.3810694274390256</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L165" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="M165" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.699969070033713</v>
+        <v>2.1273886360587437</v>
       </c>
       <c r="N165" s="1">
         <v>0</v>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="C166" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>494</v>
+        <v>953</v>
       </c>
       <c r="D166" s="2">
         <f t="shared" si="106"/>
@@ -9774,11 +9774,11 @@
       </c>
       <c r="I166" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J166" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.8687573588353927</v>
+        <v>2.5237877385765328</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>14</v>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="M166" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.22441558791585969</v>
+        <v>1.7611486006237254</v>
       </c>
       <c r="N166" s="1">
         <v>0</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="C167" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D167" s="2">
         <f t="shared" si="106"/>
@@ -9829,11 +9829,11 @@
       </c>
       <c r="I167" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J167" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.53418766980216603</v>
+        <v>2.4548662587116286</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>14</v>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="M167" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.79660675220405641</v>
+        <v>0.15778676731886976</v>
       </c>
       <c r="N167" s="1">
         <v>0</v>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="C168" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>762</v>
+        <v>400</v>
       </c>
       <c r="D168" s="2">
         <f t="shared" si="106"/>
@@ -9884,22 +9884,22 @@
       </c>
       <c r="I168" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J168" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.9156499469616395</v>
+        <v>0.12123806367554679</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L168" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M168" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>2.9254045832333575</v>
+        <v>2.4354060147075183</v>
       </c>
       <c r="N168" s="1">
         <v>0</v>
@@ -9917,7 +9917,7 @@
       </c>
       <c r="C169" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>293</v>
+        <v>852</v>
       </c>
       <c r="D169" s="2">
         <f t="shared" si="106"/>
@@ -9939,22 +9939,22 @@
       </c>
       <c r="I169" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J169" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.9484392094778942</v>
+        <v>1.6766662079856731</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L169" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="M169" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>2.7679691278828016</v>
+        <v>0.67644603550969973</v>
       </c>
       <c r="N169" s="1">
         <v>0</v>
@@ -9972,7 +9972,7 @@
       </c>
       <c r="C170" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>443</v>
+        <v>279</v>
       </c>
       <c r="D170" s="2">
         <f t="shared" si="106"/>
@@ -9992,22 +9992,22 @@
       </c>
       <c r="I170" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J170" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.1529658633114244</v>
+        <v>0.41634667978398832</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L170" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="M170" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.34497205845479106</v>
+        <v>2.4637696904178452</v>
       </c>
       <c r="N170" s="1">
         <v>0</v>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="C171" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>73</v>
+        <v>965</v>
       </c>
       <c r="D171" s="2">
         <f t="shared" si="106"/>
@@ -10047,22 +10047,22 @@
       </c>
       <c r="I171" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J171" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.9267739838471583</v>
+        <v>2.0053370566345694</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L171" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="M171" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>1.5502618987164669</v>
+        <v>1.7970069712683345</v>
       </c>
       <c r="N171" s="1">
         <v>0</v>
@@ -10080,7 +10080,7 @@
       </c>
       <c r="C172" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>627</v>
+        <v>456</v>
       </c>
       <c r="D172" s="2">
         <f t="shared" si="106"/>
@@ -10102,22 +10102,22 @@
       </c>
       <c r="I172" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J172" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.9135240669795246</v>
+        <v>4.5150168160591808E-2</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L172" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="M172" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.65648431826692855</v>
+        <v>0.46173499520390382</v>
       </c>
       <c r="N172" s="1">
         <v>0</v>
@@ -10135,7 +10135,7 @@
       </c>
       <c r="C173" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>288</v>
+        <v>933</v>
       </c>
       <c r="D173" s="2">
         <f t="shared" si="106"/>
@@ -10157,22 +10157,22 @@
       </c>
       <c r="I173" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J173" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.99611574457560714</v>
+        <v>2.1270836891351088</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L173" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="M173" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>2.2916759288047546</v>
+        <v>0.71452215519838114</v>
       </c>
       <c r="N173" s="1">
         <v>0</v>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="C174" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>725</v>
+        <v>582</v>
       </c>
       <c r="D174" s="2">
         <f t="shared" si="106"/>
@@ -10212,22 +10212,22 @@
       </c>
       <c r="I174" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J174" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.56881806936769508</v>
+        <v>1.0637171883135099</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L174" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="M174" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>2.544964552997091</v>
+        <v>1.041847918968527</v>
       </c>
       <c r="N174" s="1">
         <v>0</v>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C175" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>413</v>
+        <v>650</v>
       </c>
       <c r="D175" s="2">
         <f t="shared" si="106"/>
@@ -10267,11 +10267,11 @@
       </c>
       <c r="I175" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J175" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.7462034236111119</v>
+        <v>0.80571112499167374</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>14</v>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="M175" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>1.5053177778491853</v>
+        <v>1.4196257186063512</v>
       </c>
       <c r="N175" s="1">
         <v>0</v>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="C176" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>736</v>
+        <v>125</v>
       </c>
       <c r="D176" s="2">
         <f t="shared" si="106"/>
@@ -10322,22 +10322,22 @@
       </c>
       <c r="I176" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J176" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.0931562305673634</v>
+        <v>0.80354780052132857</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L176" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="M176" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.92672752077647125</v>
+        <v>0.9478444586505862</v>
       </c>
       <c r="N176" s="1">
         <v>0</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="C177" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>565</v>
+        <v>124</v>
       </c>
       <c r="D177" s="2">
         <f t="shared" si="106"/>
@@ -10375,22 +10375,22 @@
       </c>
       <c r="I177" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J177" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.73392583068315287</v>
+        <v>2.8464812718863022</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L177" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M177" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.71025124186753152</v>
+        <v>0.59205245722991562</v>
       </c>
       <c r="N177" s="1">
         <v>0</v>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="C178" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>893</v>
+        <v>221</v>
       </c>
       <c r="D178" s="2">
         <f t="shared" si="106"/>
@@ -10430,22 +10430,22 @@
       </c>
       <c r="I178" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J178" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.8024585684983623</v>
+        <v>1.3865789317577941</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L178" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M178" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>2.1061693490003961</v>
+        <v>2.7082805834975017</v>
       </c>
       <c r="N178" s="1">
         <v>0</v>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="C179" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>3</v>
+        <v>645</v>
       </c>
       <c r="D179" s="2">
         <f t="shared" si="106"/>
@@ -10485,22 +10485,22 @@
       </c>
       <c r="I179" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J179" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.7089213227990356</v>
+        <v>2.6168129752586315</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L179" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="M179" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.83598505691733427</v>
+        <v>2.6662892100007638</v>
       </c>
       <c r="N179" s="1">
         <v>0</v>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="C180" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>904</v>
+        <v>410</v>
       </c>
       <c r="D180" s="2">
         <f t="shared" si="106"/>
@@ -10540,22 +10540,22 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J180" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>0.62287763910059124</v>
+        <v>0.65197617598091995</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L180" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="M180" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>1.8253108278001431</v>
+        <v>2.0771620812397029</v>
       </c>
       <c r="N180" s="1">
         <v>0</v>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="C181" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>855</v>
+        <v>729</v>
       </c>
       <c r="D181" s="2">
         <f t="shared" si="106"/>
@@ -10593,22 +10593,22 @@
       </c>
       <c r="I181" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J181" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>2.1834700565767262</v>
+        <v>2.9511709936699755</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L181" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="M181" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.70451255318440431</v>
+        <v>1.8337103667257963</v>
       </c>
       <c r="N181" s="1">
         <v>0</v>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="C182" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>943</v>
+        <v>455</v>
       </c>
       <c r="D182" s="2">
         <f t="shared" si="106"/>
@@ -10648,22 +10648,22 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J182" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.3739410185972116</v>
+        <v>2.088819056579891</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L182" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="M182" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>0.4938554422799496</v>
+        <v>2.3395522266605138</v>
       </c>
       <c r="N182" s="1">
         <v>0</v>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="C183" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>201</v>
+        <v>717</v>
       </c>
       <c r="D183" s="2">
         <f t="shared" si="106"/>
@@ -10703,22 +10703,22 @@
       </c>
       <c r="I183" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J183" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.5062412196360309</v>
+        <v>2.2511611844969388</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L183" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M183" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>1.8076904963607148</v>
+        <v>1.2624344720645202</v>
       </c>
       <c r="N183" s="1">
         <v>0</v>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="C184" s="1">
         <f t="shared" ca="1" si="107"/>
-        <v>333</v>
+        <v>702</v>
       </c>
       <c r="D184" s="2">
         <f t="shared" si="106"/>
@@ -10758,22 +10758,22 @@
       </c>
       <c r="I184" s="1">
         <f t="shared" ca="1" si="110"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J184" s="2">
         <f t="shared" ca="1" si="111"/>
-        <v>1.8948755258904106</v>
+        <v>0.36930921110739379</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L184" s="1">
         <f t="shared" ca="1" si="112"/>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="M184" s="2">
         <f t="shared" ca="1" si="113"/>
-        <v>2.1841595002934406</v>
+        <v>0.93450329687259159</v>
       </c>
       <c r="N184" s="1">
         <v>0</v>
